--- a/Tesis/Resultados/Escalon/AV/ACOSTADO_Izquierdo_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/AV/ACOSTADO_Izquierdo_layer_0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="684">
   <si>
     <t>W_i</t>
   </si>
@@ -31,76 +31,148 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.27457815408706665]</t>
-  </si>
-  <si>
-    <t>[0.2141340672969818]</t>
-  </si>
-  <si>
-    <t>[-0.5663376450538635]</t>
-  </si>
-  <si>
-    <t>[-0.42455995082855225]</t>
-  </si>
-  <si>
-    <t>[0.3444417119026184]</t>
-  </si>
-  <si>
-    <t>[0.537006676197052]</t>
-  </si>
-  <si>
-    <t>[-0.2808043956756592]</t>
-  </si>
-  <si>
-    <t>[0.25376951694488525]</t>
-  </si>
-  <si>
-    <t>[0.6292083859443665]</t>
-  </si>
-  <si>
-    <t>[-0.20997391641139984]</t>
-  </si>
-  <si>
-    <t>[0.23677153885364532]</t>
-  </si>
-  <si>
-    <t>[-0.3101152181625366]</t>
-  </si>
-  <si>
-    <t>[0.2352050542831421]</t>
-  </si>
-  <si>
-    <t>[0.20744167268276215]</t>
-  </si>
-  <si>
-    <t>[0.5727003216743469]</t>
-  </si>
-  <si>
-    <t>[-0.25470930337905884]</t>
-  </si>
-  <si>
-    <t>[-0.5616934895515442]</t>
-  </si>
-  <si>
-    <t>[0.15934136509895325]</t>
-  </si>
-  <si>
-    <t>[0.3735297620296478]</t>
-  </si>
-  <si>
-    <t>[0.4049212634563446]</t>
-  </si>
-  <si>
-    <t>[0.5884242653846741]</t>
-  </si>
-  <si>
-    <t>[0.6294320821762085]</t>
-  </si>
-  <si>
-    <t>[-0.29930442571640015]</t>
-  </si>
-  <si>
-    <t>[0.5035106539726257]</t>
+    <t>[0.23395566642284393]</t>
+  </si>
+  <si>
+    <t>[-0.04794181138277054]</t>
+  </si>
+  <si>
+    <t>[-0.45448997616767883]</t>
+  </si>
+  <si>
+    <t>[-0.5102866888046265]</t>
+  </si>
+  <si>
+    <t>[-0.29994505643844604]</t>
+  </si>
+  <si>
+    <t>[0.49389147758483887]</t>
+  </si>
+  <si>
+    <t>[-0.35937950015068054]</t>
+  </si>
+  <si>
+    <t>[-0.4061274826526642]</t>
+  </si>
+  <si>
+    <t>[0.2407967448234558]</t>
+  </si>
+  <si>
+    <t>[0.22515206038951874]</t>
+  </si>
+  <si>
+    <t>[0.29862236976623535]</t>
+  </si>
+  <si>
+    <t>[-0.15003974735736847]</t>
+  </si>
+  <si>
+    <t>[-0.5046281218528748]</t>
+  </si>
+  <si>
+    <t>[0.24891547858715057]</t>
+  </si>
+  <si>
+    <t>[0.35385727882385254]</t>
+  </si>
+  <si>
+    <t>[-0.1456570029258728]</t>
+  </si>
+  <si>
+    <t>[-0.43631353974342346]</t>
+  </si>
+  <si>
+    <t>[-0.05308451130986214]</t>
+  </si>
+  <si>
+    <t>[-0.21311278641223907]</t>
+  </si>
+  <si>
+    <t>[0.25472113490104675]</t>
+  </si>
+  <si>
+    <t>[0.5587384700775146]</t>
+  </si>
+  <si>
+    <t>[-0.06070607155561447]</t>
+  </si>
+  <si>
+    <t>[-0.5138428807258606]</t>
+  </si>
+  <si>
+    <t>[-0.5110747218132019]</t>
+  </si>
+  <si>
+    <t>[-0.4861867129802704]</t>
+  </si>
+  <si>
+    <t>[0.39041247963905334]</t>
+  </si>
+  <si>
+    <t>[-0.21748444437980652]</t>
+  </si>
+  <si>
+    <t>[-0.1960185170173645]</t>
+  </si>
+  <si>
+    <t>[0.30379369854927063]</t>
+  </si>
+  <si>
+    <t>[0.05150869861245155]</t>
+  </si>
+  <si>
+    <t>[-0.5662689208984375]</t>
+  </si>
+  <si>
+    <t>[0.2037949413061142]</t>
+  </si>
+  <si>
+    <t>[0.2385660856962204]</t>
+  </si>
+  <si>
+    <t>[0.4333055913448334]</t>
+  </si>
+  <si>
+    <t>[0.42443010210990906]</t>
+  </si>
+  <si>
+    <t>[0.005251361522823572]</t>
+  </si>
+  <si>
+    <t>[-0.32888704538345337]</t>
+  </si>
+  <si>
+    <t>[0.23076140880584717]</t>
+  </si>
+  <si>
+    <t>[-0.344516783952713]</t>
+  </si>
+  <si>
+    <t>[-0.15213879942893982]</t>
+  </si>
+  <si>
+    <t>[-0.3942926824092865]</t>
+  </si>
+  <si>
+    <t>[0.40979400277137756]</t>
+  </si>
+  <si>
+    <t>[0.24985931813716888]</t>
+  </si>
+  <si>
+    <t>[0.4796823263168335]</t>
+  </si>
+  <si>
+    <t>[0.27830734848976135]</t>
+  </si>
+  <si>
+    <t>[0.37332212924957275]</t>
+  </si>
+  <si>
+    <t>[-0.2530599534511566]</t>
+  </si>
+  <si>
+    <t>[0.5116682052612305]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -115,436 +187,1732 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[0.15919336676597595]</t>
-  </si>
-  <si>
-    <t>[-0.3262327015399933]</t>
-  </si>
-  <si>
-    <t>[0.08493637293577194]</t>
-  </si>
-  <si>
-    <t>[-0.1656002402305603]</t>
-  </si>
-  <si>
-    <t>[-0.05764501169323921]</t>
-  </si>
-  <si>
-    <t>[0.06054024025797844]</t>
-  </si>
-  <si>
-    <t>[-0.21680620312690735]</t>
-  </si>
-  <si>
-    <t>[0.44258826971054077]</t>
-  </si>
-  <si>
-    <t>[0.5228361487388611]</t>
-  </si>
-  <si>
-    <t>[-0.3924909830093384]</t>
-  </si>
-  <si>
-    <t>[0.24064762890338898]</t>
-  </si>
-  <si>
-    <t>[-0.14064131677150726]</t>
-  </si>
-  <si>
-    <t>[-0.07981519401073456]</t>
-  </si>
-  <si>
-    <t>[0.14423687756061554]</t>
-  </si>
-  <si>
-    <t>[-0.08563581109046936]</t>
-  </si>
-  <si>
-    <t>[-0.03917166590690613]</t>
-  </si>
-  <si>
-    <t>[0.009812097065150738]</t>
-  </si>
-  <si>
-    <t>[0.21640895307064056]</t>
-  </si>
-  <si>
-    <t>[0.30314499139785767]</t>
-  </si>
-  <si>
-    <t>[0.058288879692554474]</t>
-  </si>
-  <si>
-    <t>[0.15859165787696838]</t>
-  </si>
-  <si>
-    <t>[-0.1015220433473587]</t>
-  </si>
-  <si>
-    <t>[-0.2882709801197052]</t>
-  </si>
-  <si>
-    <t>[-0.17217805981636047]</t>
-  </si>
-  <si>
-    <t>[-0.27662011981010437]</t>
-  </si>
-  <si>
-    <t>[-0.22174887359142303]</t>
-  </si>
-  <si>
-    <t>[0.06252685189247131]</t>
-  </si>
-  <si>
-    <t>[0.021299149841070175]</t>
-  </si>
-  <si>
-    <t>[-0.4807348847389221]</t>
-  </si>
-  <si>
-    <t>[-0.2998407483100891]</t>
-  </si>
-  <si>
-    <t>[0.1722191572189331]</t>
-  </si>
-  <si>
-    <t>[-0.02604483813047409]</t>
-  </si>
-  <si>
-    <t>[-0.34195542335510254]</t>
-  </si>
-  <si>
-    <t>[0.13086171448230743]</t>
-  </si>
-  <si>
-    <t>[0.07196971774101257]</t>
-  </si>
-  <si>
-    <t>[-0.008994990959763527]</t>
-  </si>
-  <si>
-    <t>[-0.21232469379901886]</t>
-  </si>
-  <si>
-    <t>[0.08265504986047745]</t>
-  </si>
-  <si>
-    <t>[-0.1201583594083786]</t>
-  </si>
-  <si>
-    <t>[0.23548148572444916]</t>
-  </si>
-  <si>
-    <t>[-0.0624663345515728]</t>
-  </si>
-  <si>
-    <t>[0.4627363085746765]</t>
-  </si>
-  <si>
-    <t>[-0.40206414461135864]</t>
-  </si>
-  <si>
-    <t>[-0.1494983285665512]</t>
-  </si>
-  <si>
-    <t>[-0.14774858951568604]</t>
-  </si>
-  <si>
-    <t>[-0.1481022983789444]</t>
-  </si>
-  <si>
-    <t>[0.5126504898071289]</t>
-  </si>
-  <si>
-    <t>[0.06632480025291443]</t>
-  </si>
-  <si>
-    <t>[-0.3514081835746765]</t>
-  </si>
-  <si>
-    <t>[-0.15948809683322906]</t>
-  </si>
-  <si>
-    <t>[0.12851545214653015]</t>
-  </si>
-  <si>
-    <t>[-0.13764815032482147]</t>
-  </si>
-  <si>
-    <t>[-0.25746363401412964]</t>
-  </si>
-  <si>
-    <t>[-0.012797505594789982]</t>
-  </si>
-  <si>
-    <t>[0.02054564468562603]</t>
-  </si>
-  <si>
-    <t>[-0.006025511771440506]</t>
-  </si>
-  <si>
-    <t>[0.04844149574637413]</t>
-  </si>
-  <si>
-    <t>[-0.24674271047115326]</t>
-  </si>
-  <si>
-    <t>[-0.22562797367572784]</t>
-  </si>
-  <si>
-    <t>[-0.2192109078168869]</t>
-  </si>
-  <si>
-    <t>[0.058158956468105316]</t>
-  </si>
-  <si>
-    <t>[-0.20818264782428741]</t>
-  </si>
-  <si>
-    <t>[0.11644362658262253]</t>
-  </si>
-  <si>
-    <t>[-0.24431097507476807]</t>
-  </si>
-  <si>
-    <t>[0.2270270735025406]</t>
-  </si>
-  <si>
-    <t>[-0.010022330097854137]</t>
-  </si>
-  <si>
-    <t>[-0.5728893876075745]</t>
-  </si>
-  <si>
-    <t>[0.26619118452072144]</t>
-  </si>
-  <si>
-    <t>[-0.10100401937961578]</t>
-  </si>
-  <si>
-    <t>[0.18686923384666443]</t>
-  </si>
-  <si>
-    <t>[0.1915992945432663]</t>
-  </si>
-  <si>
-    <t>[-0.044663477689027786]</t>
-  </si>
-  <si>
-    <t>[0.3106997013092041]</t>
-  </si>
-  <si>
-    <t>[0.005304883234202862]</t>
-  </si>
-  <si>
-    <t>[0.22263459861278534]</t>
-  </si>
-  <si>
-    <t>[0.27851688861846924]</t>
-  </si>
-  <si>
-    <t>[-0.05696093663573265]</t>
-  </si>
-  <si>
-    <t>[0.5197646617889404]</t>
-  </si>
-  <si>
-    <t>[0.39653199911117554]</t>
-  </si>
-  <si>
-    <t>[0.002996805589646101]</t>
-  </si>
-  <si>
-    <t>[-0.04451284930109978]</t>
-  </si>
-  <si>
-    <t>[-0.02924860641360283]</t>
-  </si>
-  <si>
-    <t>[-0.18366685509681702]</t>
-  </si>
-  <si>
-    <t>[-0.10246563702821732]</t>
-  </si>
-  <si>
-    <t>[-0.1990252137184143]</t>
-  </si>
-  <si>
-    <t>[-0.29094845056533813]</t>
-  </si>
-  <si>
-    <t>[-0.2955212891101837]</t>
-  </si>
-  <si>
-    <t>[0.023823047056794167]</t>
-  </si>
-  <si>
-    <t>[-0.06593955308198929]</t>
-  </si>
-  <si>
-    <t>[0.16503755748271942]</t>
-  </si>
-  <si>
-    <t>[-0.2929445207118988]</t>
-  </si>
-  <si>
-    <t>[-0.1409604400396347]</t>
-  </si>
-  <si>
-    <t>[-0.1664905697107315]</t>
-  </si>
-  <si>
-    <t>[-0.01907137967646122]</t>
-  </si>
-  <si>
-    <t>[0.24881306290626526]</t>
-  </si>
-  <si>
-    <t>[-0.10234298557043076]</t>
-  </si>
-  <si>
-    <t>[-0.16661295294761658]</t>
-  </si>
-  <si>
-    <t>[-0.09910881519317627]</t>
-  </si>
-  <si>
-    <t>[0.1834394335746765]</t>
-  </si>
-  <si>
-    <t>[0.15654130280017853]</t>
-  </si>
-  <si>
-    <t>[-0.08427461236715317]</t>
-  </si>
-  <si>
-    <t>[0.2896846532821655]</t>
-  </si>
-  <si>
-    <t>[-0.1334046870470047]</t>
-  </si>
-  <si>
-    <t>[-0.13750988245010376]</t>
-  </si>
-  <si>
-    <t>[0.11129353195428848]</t>
-  </si>
-  <si>
-    <t>[0.14186431467533112]</t>
-  </si>
-  <si>
-    <t>[-6.486555503215641e-05]</t>
-  </si>
-  <si>
-    <t>[-0.1074276864528656]</t>
-  </si>
-  <si>
-    <t>[-0.28105705976486206]</t>
-  </si>
-  <si>
-    <t>[0.35754111409187317]</t>
-  </si>
-  <si>
-    <t>[-0.0069321501068770885]</t>
-  </si>
-  <si>
-    <t>[0.4344047009944916]</t>
-  </si>
-  <si>
-    <t>[0.28760015964508057]</t>
-  </si>
-  <si>
-    <t>[-0.30744221806526184]</t>
-  </si>
-  <si>
-    <t>[-0.37720897793769836]</t>
-  </si>
-  <si>
-    <t>[-0.2238931506872177]</t>
-  </si>
-  <si>
-    <t>[0.08137958496809006]</t>
-  </si>
-  <si>
-    <t>[-0.07481984794139862]</t>
-  </si>
-  <si>
-    <t>[0.3274695575237274]</t>
-  </si>
-  <si>
-    <t>[0.2918757200241089]</t>
-  </si>
-  <si>
-    <t>[-0.38788020610809326]</t>
-  </si>
-  <si>
-    <t>[0.043705012649297714]</t>
-  </si>
-  <si>
-    <t>[-0.04453456401824951]</t>
-  </si>
-  <si>
-    <t>[-0.09174508601427078]</t>
-  </si>
-  <si>
-    <t>[-0.1925564706325531]</t>
-  </si>
-  <si>
-    <t>[0.1532445102930069]</t>
-  </si>
-  <si>
-    <t>[0.10722913593053818]</t>
-  </si>
-  <si>
-    <t>[-0.06665156781673431]</t>
-  </si>
-  <si>
-    <t>[-0.21273891627788544]</t>
-  </si>
-  <si>
-    <t>[-0.13598895072937012]</t>
-  </si>
-  <si>
-    <t>[-0.32024505734443665]</t>
-  </si>
-  <si>
-    <t>[0.4195544421672821]</t>
-  </si>
-  <si>
-    <t>[-0.6220752000808716]</t>
-  </si>
-  <si>
-    <t>[-0.16131789982318878]</t>
-  </si>
-  <si>
-    <t>[-0.14487817883491516]</t>
-  </si>
-  <si>
-    <t>[-0.10384753346443176]</t>
-  </si>
-  <si>
-    <t>[0.3226853013038635]</t>
-  </si>
-  <si>
-    <t>[-0.1745508313179016]</t>
-  </si>
-  <si>
-    <t>[0.007690404076129198]</t>
-  </si>
-  <si>
-    <t>[0.1451660841703415]</t>
-  </si>
-  <si>
-    <t>[0.10888201743364334]</t>
-  </si>
-  <si>
-    <t>[-0.42767709493637085]</t>
-  </si>
-  <si>
-    <t>[0.490786612033844]</t>
-  </si>
-  <si>
-    <t>[-0.15162336826324463]</t>
+    <t>[-0.10062260925769806]</t>
+  </si>
+  <si>
+    <t>[0.014313552528619766]</t>
+  </si>
+  <si>
+    <t>[-0.18106524646282196]</t>
+  </si>
+  <si>
+    <t>[0.04704751819372177]</t>
+  </si>
+  <si>
+    <t>[-0.1703520566225052]</t>
+  </si>
+  <si>
+    <t>[0.05133546143770218]</t>
+  </si>
+  <si>
+    <t>[-0.15102757513523102]</t>
+  </si>
+  <si>
+    <t>[0.24226440489292145]</t>
+  </si>
+  <si>
+    <t>[-0.15771722793579102]</t>
+  </si>
+  <si>
+    <t>[-0.06900456547737122]</t>
+  </si>
+  <si>
+    <t>[0.11954338848590851]</t>
+  </si>
+  <si>
+    <t>[0.20756180584430695]</t>
+  </si>
+  <si>
+    <t>[-0.1431806981563568]</t>
+  </si>
+  <si>
+    <t>[0.37639835476875305]</t>
+  </si>
+  <si>
+    <t>[0.4390583634376526]</t>
+  </si>
+  <si>
+    <t>[0.044236380606889725]</t>
+  </si>
+  <si>
+    <t>[-0.07222666591405869]</t>
+  </si>
+  <si>
+    <t>[0.0744418203830719]</t>
+  </si>
+  <si>
+    <t>[-0.16932207345962524]</t>
+  </si>
+  <si>
+    <t>[0.14036966860294342]</t>
+  </si>
+  <si>
+    <t>[0.044417884200811386]</t>
+  </si>
+  <si>
+    <t>[-0.1274186074733734]</t>
+  </si>
+  <si>
+    <t>[-0.3172570765018463]</t>
+  </si>
+  <si>
+    <t>[0.06524336338043213]</t>
+  </si>
+  <si>
+    <t>[-0.27647069096565247]</t>
+  </si>
+  <si>
+    <t>[0.08435056358575821]</t>
+  </si>
+  <si>
+    <t>[-0.22836872935295105]</t>
+  </si>
+  <si>
+    <t>[-0.33414825797080994]</t>
+  </si>
+  <si>
+    <t>[-0.02676107920706272]</t>
+  </si>
+  <si>
+    <t>[-0.21860186755657196]</t>
+  </si>
+  <si>
+    <t>[-0.37471193075180054]</t>
+  </si>
+  <si>
+    <t>[0.0030069807544350624]</t>
+  </si>
+  <si>
+    <t>[0.10464109480381012]</t>
+  </si>
+  <si>
+    <t>[0.1308896541595459]</t>
+  </si>
+  <si>
+    <t>[0.40045854449272156]</t>
+  </si>
+  <si>
+    <t>[-0.05836723744869232]</t>
+  </si>
+  <si>
+    <t>[-0.04718757048249245]</t>
+  </si>
+  <si>
+    <t>[0.21327923238277435]</t>
+  </si>
+  <si>
+    <t>[-0.11013408750295639]</t>
+  </si>
+  <si>
+    <t>[-0.1042533591389656]</t>
+  </si>
+  <si>
+    <t>[-0.21265751123428345]</t>
+  </si>
+  <si>
+    <t>[0.17421209812164307]</t>
+  </si>
+  <si>
+    <t>[0.2288215011358261]</t>
+  </si>
+  <si>
+    <t>[0.25683486461639404]</t>
+  </si>
+  <si>
+    <t>[0.13716654479503632]</t>
+  </si>
+  <si>
+    <t>[-0.017409129068255424]</t>
+  </si>
+  <si>
+    <t>[-0.04059256613254547]</t>
+  </si>
+  <si>
+    <t>[0.15942460298538208]</t>
+  </si>
+  <si>
+    <t>[-0.20168328285217285]</t>
+  </si>
+  <si>
+    <t>[-0.3974303603172302]</t>
+  </si>
+  <si>
+    <t>[0.43006494641304016]</t>
+  </si>
+  <si>
+    <t>[0.2719446122646332]</t>
+  </si>
+  <si>
+    <t>[0.11570420861244202]</t>
+  </si>
+  <si>
+    <t>[-0.20987984538078308]</t>
+  </si>
+  <si>
+    <t>[0.38116690516471863]</t>
+  </si>
+  <si>
+    <t>[-0.08175039291381836]</t>
+  </si>
+  <si>
+    <t>[-0.20480047166347504]</t>
+  </si>
+  <si>
+    <t>[0.08340537548065186]</t>
+  </si>
+  <si>
+    <t>[-0.31935402750968933]</t>
+  </si>
+  <si>
+    <t>[0.3608647286891937]</t>
+  </si>
+  <si>
+    <t>[0.1414949744939804]</t>
+  </si>
+  <si>
+    <t>[-0.07604188472032547]</t>
+  </si>
+  <si>
+    <t>[-0.2917760908603668]</t>
+  </si>
+  <si>
+    <t>[0.08687208592891693]</t>
+  </si>
+  <si>
+    <t>[0.11344371736049652]</t>
+  </si>
+  <si>
+    <t>[-0.30330270528793335]</t>
+  </si>
+  <si>
+    <t>[0.32190191745758057]</t>
+  </si>
+  <si>
+    <t>[-0.14790497720241547]</t>
+  </si>
+  <si>
+    <t>[-0.09400437772274017]</t>
+  </si>
+  <si>
+    <t>[-0.040380898863077164]</t>
+  </si>
+  <si>
+    <t>[0.5006800889968872]</t>
+  </si>
+  <si>
+    <t>[0.0060272011905908585]</t>
+  </si>
+  <si>
+    <t>[0.20775845646858215]</t>
+  </si>
+  <si>
+    <t>[-0.041798658668994904]</t>
+  </si>
+  <si>
+    <t>[0.2864142656326294]</t>
+  </si>
+  <si>
+    <t>[0.14881309866905212]</t>
+  </si>
+  <si>
+    <t>[0.04492863267660141]</t>
+  </si>
+  <si>
+    <t>[-0.196832075715065]</t>
+  </si>
+  <si>
+    <t>[0.1103624776005745]</t>
+  </si>
+  <si>
+    <t>[0.18649928271770477]</t>
+  </si>
+  <si>
+    <t>[-0.2527162730693817]</t>
+  </si>
+  <si>
+    <t>[-0.16552965342998505]</t>
+  </si>
+  <si>
+    <t>[-0.20973233878612518]</t>
+  </si>
+  <si>
+    <t>[0.00883031077682972]</t>
+  </si>
+  <si>
+    <t>[0.4486308991909027]</t>
+  </si>
+  <si>
+    <t>[-0.17346952855587006]</t>
+  </si>
+  <si>
+    <t>[0.21083949506282806]</t>
+  </si>
+  <si>
+    <t>[-0.10060905665159225]</t>
+  </si>
+  <si>
+    <t>[-0.047452162951231]</t>
+  </si>
+  <si>
+    <t>[-0.08887995779514313]</t>
+  </si>
+  <si>
+    <t>[-0.004906792659312487]</t>
+  </si>
+  <si>
+    <t>[-0.12572228908538818]</t>
+  </si>
+  <si>
+    <t>[-0.28651994466781616]</t>
+  </si>
+  <si>
+    <t>[-0.02935565821826458]</t>
+  </si>
+  <si>
+    <t>[0.2968294024467468]</t>
+  </si>
+  <si>
+    <t>[-0.20353606343269348]</t>
+  </si>
+  <si>
+    <t>[-0.14517003297805786]</t>
+  </si>
+  <si>
+    <t>[0.1443304568529129]</t>
+  </si>
+  <si>
+    <t>[0.07718536257743835]</t>
+  </si>
+  <si>
+    <t>[0.26326537132263184]</t>
+  </si>
+  <si>
+    <t>[0.2617783546447754]</t>
+  </si>
+  <si>
+    <t>[-0.18415027856826782]</t>
+  </si>
+  <si>
+    <t>[0.1843409389257431]</t>
+  </si>
+  <si>
+    <t>[-0.1992182582616806]</t>
+  </si>
+  <si>
+    <t>[-0.26004043221473694]</t>
+  </si>
+  <si>
+    <t>[0.15495282411575317]</t>
+  </si>
+  <si>
+    <t>[-0.16944842040538788]</t>
+  </si>
+  <si>
+    <t>[0.012842077761888504]</t>
+  </si>
+  <si>
+    <t>[0.43284115195274353]</t>
+  </si>
+  <si>
+    <t>[-0.017768170684576035]</t>
+  </si>
+  <si>
+    <t>[-0.11725218594074249]</t>
+  </si>
+  <si>
+    <t>[-0.01127463299781084]</t>
+  </si>
+  <si>
+    <t>[0.0939284935593605]</t>
+  </si>
+  <si>
+    <t>[-0.011663044802844524]</t>
+  </si>
+  <si>
+    <t>[0.2151893973350525]</t>
+  </si>
+  <si>
+    <t>[-0.31684809923171997]</t>
+  </si>
+  <si>
+    <t>[0.2645356059074402]</t>
+  </si>
+  <si>
+    <t>[-0.08200144022703171]</t>
+  </si>
+  <si>
+    <t>[-0.011246948502957821]</t>
+  </si>
+  <si>
+    <t>[0.1906680166721344]</t>
+  </si>
+  <si>
+    <t>[-0.023482395336031914]</t>
+  </si>
+  <si>
+    <t>[-0.2686731815338135]</t>
+  </si>
+  <si>
+    <t>[-0.14995495975017548]</t>
+  </si>
+  <si>
+    <t>[0.3243376314640045]</t>
+  </si>
+  <si>
+    <t>[-0.029234811663627625]</t>
+  </si>
+  <si>
+    <t>[0.10713359713554382]</t>
+  </si>
+  <si>
+    <t>[0.3069044351577759]</t>
+  </si>
+  <si>
+    <t>[-0.053678449243307114]</t>
+  </si>
+  <si>
+    <t>[-0.19797028601169586]</t>
+  </si>
+  <si>
+    <t>[-0.13923737406730652]</t>
+  </si>
+  <si>
+    <t>[-0.07297448813915253]</t>
+  </si>
+  <si>
+    <t>[-0.247443288564682]</t>
+  </si>
+  <si>
+    <t>[0.08808913081884384]</t>
+  </si>
+  <si>
+    <t>[-0.108318030834198]</t>
+  </si>
+  <si>
+    <t>[0.03480914607644081]</t>
+  </si>
+  <si>
+    <t>[-0.011936831288039684]</t>
+  </si>
+  <si>
+    <t>[0.13549603521823883]</t>
+  </si>
+  <si>
+    <t>[-0.12444450706243515]</t>
+  </si>
+  <si>
+    <t>[-0.1882387399673462]</t>
+  </si>
+  <si>
+    <t>[-0.30608266592025757]</t>
+  </si>
+  <si>
+    <t>[-0.12371321767568588]</t>
+  </si>
+  <si>
+    <t>[-0.0395260713994503]</t>
+  </si>
+  <si>
+    <t>[0.48035937547683716]</t>
+  </si>
+  <si>
+    <t>[-0.08045510947704315]</t>
+  </si>
+  <si>
+    <t>[0.0022749165073037148]</t>
+  </si>
+  <si>
+    <t>[0.13389429450035095]</t>
+  </si>
+  <si>
+    <t>[0.0979519635438919]</t>
+  </si>
+  <si>
+    <t>[-0.1789751499891281]</t>
+  </si>
+  <si>
+    <t>[-0.18479423224925995]</t>
+  </si>
+  <si>
+    <t>[0.10433412343263626]</t>
+  </si>
+  <si>
+    <t>[-0.3144880533218384]</t>
+  </si>
+  <si>
+    <t>[0.1890852153301239]</t>
+  </si>
+  <si>
+    <t>[0.16623319685459137]</t>
+  </si>
+  <si>
+    <t>[-0.2809443175792694]</t>
+  </si>
+  <si>
+    <t>[0.23406676948070526]</t>
+  </si>
+  <si>
+    <t>[-0.09673091769218445]</t>
+  </si>
+  <si>
+    <t>[-0.34501078724861145]</t>
+  </si>
+  <si>
+    <t>[-0.1406192034482956]</t>
+  </si>
+  <si>
+    <t>[0.2046046257019043]</t>
+  </si>
+  <si>
+    <t>[-0.0231451578438282]</t>
+  </si>
+  <si>
+    <t>[-0.44422802329063416]</t>
+  </si>
+  <si>
+    <t>[0.20004837214946747]</t>
+  </si>
+  <si>
+    <t>[0.10905708372592926]</t>
+  </si>
+  <si>
+    <t>[0.12816880643367767]</t>
+  </si>
+  <si>
+    <t>[0.1326943188905716]</t>
+  </si>
+  <si>
+    <t>[0.09757016599178314]</t>
+  </si>
+  <si>
+    <t>[-0.01748223789036274]</t>
+  </si>
+  <si>
+    <t>[0.21626383066177368]</t>
+  </si>
+  <si>
+    <t>[-0.3335174024105072]</t>
+  </si>
+  <si>
+    <t>[0.11515314877033234]</t>
+  </si>
+  <si>
+    <t>[-0.24046540260314941]</t>
+  </si>
+  <si>
+    <t>[-0.02620038203895092]</t>
+  </si>
+  <si>
+    <t>[-0.004381323698908091]</t>
+  </si>
+  <si>
+    <t>[0.13040846586227417]</t>
+  </si>
+  <si>
+    <t>[-0.17830418050289154]</t>
+  </si>
+  <si>
+    <t>[0.07491795718669891]</t>
+  </si>
+  <si>
+    <t>[0.08538099378347397]</t>
+  </si>
+  <si>
+    <t>[0.0838746726512909]</t>
+  </si>
+  <si>
+    <t>[-0.054964128881692886]</t>
+  </si>
+  <si>
+    <t>[0.307101845741272]</t>
+  </si>
+  <si>
+    <t>[-0.10671423375606537]</t>
+  </si>
+  <si>
+    <t>[0.3240743577480316]</t>
+  </si>
+  <si>
+    <t>[-0.18769580125808716]</t>
+  </si>
+  <si>
+    <t>[-0.29813140630722046]</t>
+  </si>
+  <si>
+    <t>[0.008293060585856438]</t>
+  </si>
+  <si>
+    <t>[0.2364392876625061]</t>
+  </si>
+  <si>
+    <t>[0.19785147905349731]</t>
+  </si>
+  <si>
+    <t>[0.00808455515652895]</t>
+  </si>
+  <si>
+    <t>[-0.031834833323955536]</t>
+  </si>
+  <si>
+    <t>[0.07658828049898148]</t>
+  </si>
+  <si>
+    <t>[0.026153679937124252]</t>
+  </si>
+  <si>
+    <t>[0.09000314027070999]</t>
+  </si>
+  <si>
+    <t>[0.43799644708633423]</t>
+  </si>
+  <si>
+    <t>[-0.048872608691453934]</t>
+  </si>
+  <si>
+    <t>[0.054406020790338516]</t>
+  </si>
+  <si>
+    <t>[0.08109397441148758]</t>
+  </si>
+  <si>
+    <t>[-0.03940219804644585]</t>
+  </si>
+  <si>
+    <t>[-0.17894361913204193]</t>
+  </si>
+  <si>
+    <t>[-0.3570496439933777]</t>
+  </si>
+  <si>
+    <t>[-0.19288620352745056]</t>
+  </si>
+  <si>
+    <t>[0.046483296900987625]</t>
+  </si>
+  <si>
+    <t>[-0.0013566592242568731]</t>
+  </si>
+  <si>
+    <t>[0.14309187233448029]</t>
+  </si>
+  <si>
+    <t>[-0.21279646456241608]</t>
+  </si>
+  <si>
+    <t>[-0.32701560854911804]</t>
+  </si>
+  <si>
+    <t>[-0.10377660393714905]</t>
+  </si>
+  <si>
+    <t>[0.3344082534313202]</t>
+  </si>
+  <si>
+    <t>[0.2778351306915283]</t>
+  </si>
+  <si>
+    <t>[-0.04774697497487068]</t>
+  </si>
+  <si>
+    <t>[-0.08609659224748611]</t>
+  </si>
+  <si>
+    <t>[-0.14394888281822205]</t>
+  </si>
+  <si>
+    <t>[-0.008907054550945759]</t>
+  </si>
+  <si>
+    <t>[-0.09646032750606537]</t>
+  </si>
+  <si>
+    <t>[-0.14895163476467133]</t>
+  </si>
+  <si>
+    <t>[0.07512230426073074]</t>
+  </si>
+  <si>
+    <t>[0.03380632773041725]</t>
+  </si>
+  <si>
+    <t>[-0.31734713912010193]</t>
+  </si>
+  <si>
+    <t>[-0.11236206442117691]</t>
+  </si>
+  <si>
+    <t>[-0.1273888349533081]</t>
+  </si>
+  <si>
+    <t>[-0.022751010954380035]</t>
+  </si>
+  <si>
+    <t>[0.07437290251255035]</t>
+  </si>
+  <si>
+    <t>[-0.067762590944767]</t>
+  </si>
+  <si>
+    <t>[-0.3234080374240875]</t>
+  </si>
+  <si>
+    <t>[0.006288390606641769]</t>
+  </si>
+  <si>
+    <t>[0.4187762141227722]</t>
+  </si>
+  <si>
+    <t>[0.10472648590803146]</t>
+  </si>
+  <si>
+    <t>[0.3011573255062103]</t>
+  </si>
+  <si>
+    <t>[0.02151411399245262]</t>
+  </si>
+  <si>
+    <t>[-0.3219476342201233]</t>
+  </si>
+  <si>
+    <t>[-0.07147209346294403]</t>
+  </si>
+  <si>
+    <t>[-0.23964278399944305]</t>
+  </si>
+  <si>
+    <t>[-0.07936329394578934]</t>
+  </si>
+  <si>
+    <t>[-0.16885216534137726]</t>
+  </si>
+  <si>
+    <t>[0.24084515869617462]</t>
+  </si>
+  <si>
+    <t>[0.32260575890541077]</t>
+  </si>
+  <si>
+    <t>[0.09887957572937012]</t>
+  </si>
+  <si>
+    <t>[0.13350419700145721]</t>
+  </si>
+  <si>
+    <t>[0.06226680800318718]</t>
+  </si>
+  <si>
+    <t>[-0.17439347505569458]</t>
+  </si>
+  <si>
+    <t>[0.021700993180274963]</t>
+  </si>
+  <si>
+    <t>[0.17964820563793182]</t>
+  </si>
+  <si>
+    <t>[-0.017566250637173653]</t>
+  </si>
+  <si>
+    <t>[0.11018214374780655]</t>
+  </si>
+  <si>
+    <t>[-0.2629709541797638]</t>
+  </si>
+  <si>
+    <t>[-0.31752127408981323]</t>
+  </si>
+  <si>
+    <t>[0.24373437464237213]</t>
+  </si>
+  <si>
+    <t>[-0.32432645559310913]</t>
+  </si>
+  <si>
+    <t>[0.043013472110033035]</t>
+  </si>
+  <si>
+    <t>[-0.039968740195035934]</t>
+  </si>
+  <si>
+    <t>[0.08109764754772186]</t>
+  </si>
+  <si>
+    <t>[0.1301589161157608]</t>
+  </si>
+  <si>
+    <t>[-0.12683598697185516]</t>
+  </si>
+  <si>
+    <t>[-0.18586966395378113]</t>
+  </si>
+  <si>
+    <t>[0.24978959560394287]</t>
+  </si>
+  <si>
+    <t>[0.4980444014072418]</t>
+  </si>
+  <si>
+    <t>[-0.3586992919445038]</t>
+  </si>
+  <si>
+    <t>[-0.06257249414920807]</t>
+  </si>
+  <si>
+    <t>[0.16701073944568634]</t>
+  </si>
+  <si>
+    <t>[-0.008307361975312233]</t>
+  </si>
+  <si>
+    <t>[0.12703153491020203]</t>
+  </si>
+  <si>
+    <t>[0.21910229325294495]</t>
+  </si>
+  <si>
+    <t>[-0.011165526695549488]</t>
+  </si>
+  <si>
+    <t>[-0.12755128741264343]</t>
+  </si>
+  <si>
+    <t>[-0.34557902812957764]</t>
+  </si>
+  <si>
+    <t>[-0.17617256939411163]</t>
+  </si>
+  <si>
+    <t>[-0.0005936999223195016]</t>
+  </si>
+  <si>
+    <t>[-0.41975608468055725]</t>
+  </si>
+  <si>
+    <t>[-0.16659943759441376]</t>
+  </si>
+  <si>
+    <t>[0.16070988774299622]</t>
+  </si>
+  <si>
+    <t>[0.20781244337558746]</t>
+  </si>
+  <si>
+    <t>[0.015412562526762486]</t>
+  </si>
+  <si>
+    <t>[0.1327275037765503]</t>
+  </si>
+  <si>
+    <t>[0.28937938809394836]</t>
+  </si>
+  <si>
+    <t>[0.11574873328208923]</t>
+  </si>
+  <si>
+    <t>[0.09366218745708466]</t>
+  </si>
+  <si>
+    <t>[0.2072305977344513]</t>
+  </si>
+  <si>
+    <t>[-0.4220530688762665]</t>
+  </si>
+  <si>
+    <t>[0.15988895297050476]</t>
+  </si>
+  <si>
+    <t>[-0.3620844781398773]</t>
+  </si>
+  <si>
+    <t>[-0.28026047348976135]</t>
+  </si>
+  <si>
+    <t>[-0.4532233774662018]</t>
+  </si>
+  <si>
+    <t>[0.05744815245270729]</t>
+  </si>
+  <si>
+    <t>[0.1537642925977707]</t>
+  </si>
+  <si>
+    <t>[0.29887813329696655]</t>
+  </si>
+  <si>
+    <t>[0.20812270045280457]</t>
+  </si>
+  <si>
+    <t>[0.23128117620944977]</t>
+  </si>
+  <si>
+    <t>[-0.4007897973060608]</t>
+  </si>
+  <si>
+    <t>[0.22515729069709778]</t>
+  </si>
+  <si>
+    <t>[-0.1931917518377304]</t>
+  </si>
+  <si>
+    <t>[0.2780001163482666]</t>
+  </si>
+  <si>
+    <t>[0.27071404457092285]</t>
+  </si>
+  <si>
+    <t>[0.08391489833593369]</t>
+  </si>
+  <si>
+    <t>[0.14203780889511108]</t>
+  </si>
+  <si>
+    <t>[-0.12300598621368408]</t>
+  </si>
+  <si>
+    <t>[0.07289469242095947]</t>
+  </si>
+  <si>
+    <t>[0.17831416428089142]</t>
+  </si>
+  <si>
+    <t>[0.14687204360961914]</t>
+  </si>
+  <si>
+    <t>[0.10482699424028397]</t>
+  </si>
+  <si>
+    <t>[-0.3230823278427124]</t>
+  </si>
+  <si>
+    <t>[-0.06856303662061691]</t>
+  </si>
+  <si>
+    <t>[0.4711495041847229]</t>
+  </si>
+  <si>
+    <t>[-0.059042710810899734]</t>
+  </si>
+  <si>
+    <t>[0.06263719499111176]</t>
+  </si>
+  <si>
+    <t>[0.07323548197746277]</t>
+  </si>
+  <si>
+    <t>[0.19170235097408295]</t>
+  </si>
+  <si>
+    <t>[-0.1265105903148651]</t>
+  </si>
+  <si>
+    <t>[0.20811429619789124]</t>
+  </si>
+  <si>
+    <t>[-0.09684088081121445]</t>
+  </si>
+  <si>
+    <t>[-0.005261717364192009]</t>
+  </si>
+  <si>
+    <t>[-0.006645348854362965]</t>
+  </si>
+  <si>
+    <t>[0.4546654224395752]</t>
+  </si>
+  <si>
+    <t>[0.0598260797560215]</t>
+  </si>
+  <si>
+    <t>[0.10410043597221375]</t>
+  </si>
+  <si>
+    <t>[-0.0613829605281353]</t>
+  </si>
+  <si>
+    <t>[0.3302153944969177]</t>
+  </si>
+  <si>
+    <t>[-0.06641050428152084]</t>
+  </si>
+  <si>
+    <t>[-0.09510920196771622]</t>
+  </si>
+  <si>
+    <t>[-0.06994850188493729]</t>
+  </si>
+  <si>
+    <t>[0.4834653437137604]</t>
+  </si>
+  <si>
+    <t>[0.18705780804157257]</t>
+  </si>
+  <si>
+    <t>[-0.11069539189338684]</t>
+  </si>
+  <si>
+    <t>[-0.21162186563014984]</t>
+  </si>
+  <si>
+    <t>[-0.10490057617425919]</t>
+  </si>
+  <si>
+    <t>[-0.2631438076496124]</t>
+  </si>
+  <si>
+    <t>[0.4148920178413391]</t>
+  </si>
+  <si>
+    <t>[-0.38909605145454407]</t>
+  </si>
+  <si>
+    <t>[0.3599458932876587]</t>
+  </si>
+  <si>
+    <t>[0.24779556691646576]</t>
+  </si>
+  <si>
+    <t>[0.23161624372005463]</t>
+  </si>
+  <si>
+    <t>[-0.1818099319934845]</t>
+  </si>
+  <si>
+    <t>[-0.32262808084487915]</t>
+  </si>
+  <si>
+    <t>[-0.2680472731590271]</t>
+  </si>
+  <si>
+    <t>[-0.24417008459568024]</t>
+  </si>
+  <si>
+    <t>[-0.037344466894865036]</t>
+  </si>
+  <si>
+    <t>[0.1688413769006729]</t>
+  </si>
+  <si>
+    <t>[0.10646381974220276]</t>
+  </si>
+  <si>
+    <t>[-0.3915863633155823]</t>
+  </si>
+  <si>
+    <t>[-0.007412112783640623]</t>
+  </si>
+  <si>
+    <t>[-0.003556319046765566]</t>
+  </si>
+  <si>
+    <t>[0.21028195321559906]</t>
+  </si>
+  <si>
+    <t>[0.2570076882839203]</t>
+  </si>
+  <si>
+    <t>[-0.09785446524620056]</t>
+  </si>
+  <si>
+    <t>[0.23642155528068542]</t>
+  </si>
+  <si>
+    <t>[0.10683509707450867]</t>
+  </si>
+  <si>
+    <t>[-0.20953191816806793]</t>
+  </si>
+  <si>
+    <t>[-0.24051569402217865]</t>
+  </si>
+  <si>
+    <t>[-0.22592288255691528]</t>
+  </si>
+  <si>
+    <t>[0.13307952880859375]</t>
+  </si>
+  <si>
+    <t>[0.13551165163516998]</t>
+  </si>
+  <si>
+    <t>[-0.1901627629995346]</t>
+  </si>
+  <si>
+    <t>[-0.2807861268520355]</t>
+  </si>
+  <si>
+    <t>[0.03635609894990921]</t>
+  </si>
+  <si>
+    <t>[0.28851714730262756]</t>
+  </si>
+  <si>
+    <t>[-0.159185990691185]</t>
+  </si>
+  <si>
+    <t>[0.30810901522636414]</t>
+  </si>
+  <si>
+    <t>[-0.23198939859867096]</t>
+  </si>
+  <si>
+    <t>[-0.02365122176706791]</t>
+  </si>
+  <si>
+    <t>[-0.4783027768135071]</t>
+  </si>
+  <si>
+    <t>[0.31122127175331116]</t>
+  </si>
+  <si>
+    <t>[0.28459328413009644]</t>
+  </si>
+  <si>
+    <t>[0.22401225566864014]</t>
+  </si>
+  <si>
+    <t>[-0.08686333149671555]</t>
+  </si>
+  <si>
+    <t>[0.15440887212753296]</t>
+  </si>
+  <si>
+    <t>[0.4056811034679413]</t>
+  </si>
+  <si>
+    <t>[0.23717765510082245]</t>
+  </si>
+  <si>
+    <t>[-0.13105462491512299]</t>
+  </si>
+  <si>
+    <t>[0.12477373331785202]</t>
+  </si>
+  <si>
+    <t>[-0.01888071931898594]</t>
+  </si>
+  <si>
+    <t>[-0.021228021010756493]</t>
+  </si>
+  <si>
+    <t>[-0.07733896374702454]</t>
+  </si>
+  <si>
+    <t>[-0.47602900862693787]</t>
+  </si>
+  <si>
+    <t>[-0.346403032541275]</t>
+  </si>
+  <si>
+    <t>[0.2603254020214081]</t>
+  </si>
+  <si>
+    <t>[-0.16919226944446564]</t>
+  </si>
+  <si>
+    <t>[0.30305132269859314]</t>
+  </si>
+  <si>
+    <t>[0.1632709950208664]</t>
+  </si>
+  <si>
+    <t>[0.17311729490756989]</t>
+  </si>
+  <si>
+    <t>[0.03803587704896927]</t>
+  </si>
+  <si>
+    <t>[-0.29253488779067993]</t>
+  </si>
+  <si>
+    <t>[-0.09848416596651077]</t>
+  </si>
+  <si>
+    <t>[-0.23847268521785736]</t>
+  </si>
+  <si>
+    <t>[-0.2062402218580246]</t>
+  </si>
+  <si>
+    <t>[-0.2169906049966812]</t>
+  </si>
+  <si>
+    <t>[-0.046664897352457047]</t>
+  </si>
+  <si>
+    <t>[0.03442700579762459]</t>
+  </si>
+  <si>
+    <t>[0.11465512216091156]</t>
+  </si>
+  <si>
+    <t>[-0.1091294214129448]</t>
+  </si>
+  <si>
+    <t>[0.015881961211562157]</t>
+  </si>
+  <si>
+    <t>[-0.2849601209163666]</t>
+  </si>
+  <si>
+    <t>[-0.2042292356491089]</t>
+  </si>
+  <si>
+    <t>[-0.3668781816959381]</t>
+  </si>
+  <si>
+    <t>[-0.046849463135004044]</t>
+  </si>
+  <si>
+    <t>[-0.05067373812198639]</t>
+  </si>
+  <si>
+    <t>[-0.1904008984565735]</t>
+  </si>
+  <si>
+    <t>[-0.15903140604496002]</t>
+  </si>
+  <si>
+    <t>[-0.01859293505549431]</t>
+  </si>
+  <si>
+    <t>[0.01638813689351082]</t>
+  </si>
+  <si>
+    <t>[0.08420436084270477]</t>
+  </si>
+  <si>
+    <t>[0.15851113200187683]</t>
+  </si>
+  <si>
+    <t>[-0.15536810457706451]</t>
+  </si>
+  <si>
+    <t>[-0.20370350778102875]</t>
+  </si>
+  <si>
+    <t>[0.08273914456367493]</t>
+  </si>
+  <si>
+    <t>[-0.1322489082813263]</t>
+  </si>
+  <si>
+    <t>[0.1214439794421196]</t>
+  </si>
+  <si>
+    <t>[0.07078320533037186]</t>
+  </si>
+  <si>
+    <t>[-0.008894276805222034]</t>
+  </si>
+  <si>
+    <t>[-0.1415296196937561]</t>
+  </si>
+  <si>
+    <t>[0.06495857983827591]</t>
+  </si>
+  <si>
+    <t>[0.028438115492463112]</t>
+  </si>
+  <si>
+    <t>[0.1175631582736969]</t>
+  </si>
+  <si>
+    <t>[-0.08747747540473938]</t>
+  </si>
+  <si>
+    <t>[0.03756237402558327]</t>
+  </si>
+  <si>
+    <t>[-0.18288905918598175]</t>
+  </si>
+  <si>
+    <t>[0.03763830289244652]</t>
+  </si>
+  <si>
+    <t>[-0.1384231001138687]</t>
+  </si>
+  <si>
+    <t>[-0.17052476108074188]</t>
+  </si>
+  <si>
+    <t>[0.32576823234558105]</t>
+  </si>
+  <si>
+    <t>[0.030597295612096786]</t>
+  </si>
+  <si>
+    <t>[0.20710071921348572]</t>
+  </si>
+  <si>
+    <t>[0.4029814600944519]</t>
+  </si>
+  <si>
+    <t>[-0.012630751356482506]</t>
+  </si>
+  <si>
+    <t>[-0.09716548025608063]</t>
+  </si>
+  <si>
+    <t>[-0.13288471102714539]</t>
+  </si>
+  <si>
+    <t>[-0.22499486804008484]</t>
+  </si>
+  <si>
+    <t>[-0.1853230744600296]</t>
+  </si>
+  <si>
+    <t>[0.003788585774600506]</t>
+  </si>
+  <si>
+    <t>[0.4006075859069824]</t>
+  </si>
+  <si>
+    <t>[0.2725951671600342]</t>
+  </si>
+  <si>
+    <t>[0.10141076147556305]</t>
+  </si>
+  <si>
+    <t>[-0.29930031299591064]</t>
+  </si>
+  <si>
+    <t>[-0.3031731843948364]</t>
+  </si>
+  <si>
+    <t>[-0.3981855809688568]</t>
+  </si>
+  <si>
+    <t>[0.05878913402557373]</t>
+  </si>
+  <si>
+    <t>[0.010925237089395523]</t>
+  </si>
+  <si>
+    <t>[0.19128523766994476]</t>
+  </si>
+  <si>
+    <t>[-0.39111027121543884]</t>
+  </si>
+  <si>
+    <t>[0.23494744300842285]</t>
+  </si>
+  <si>
+    <t>[-0.01628546603024006]</t>
+  </si>
+  <si>
+    <t>[-0.06794824451208115]</t>
+  </si>
+  <si>
+    <t>[-0.08745970577001572]</t>
+  </si>
+  <si>
+    <t>[-0.30522605776786804]</t>
+  </si>
+  <si>
+    <t>[-0.14253489673137665]</t>
+  </si>
+  <si>
+    <t>[-0.1393103301525116]</t>
+  </si>
+  <si>
+    <t>[0.2919524908065796]</t>
+  </si>
+  <si>
+    <t>[0.24846509099006653]</t>
+  </si>
+  <si>
+    <t>[-0.16373449563980103]</t>
+  </si>
+  <si>
+    <t>[-0.21269045770168304]</t>
+  </si>
+  <si>
+    <t>[-0.04085785523056984]</t>
+  </si>
+  <si>
+    <t>[0.23797033727169037]</t>
+  </si>
+  <si>
+    <t>[-0.18160896003246307]</t>
+  </si>
+  <si>
+    <t>[0.16082338988780975]</t>
+  </si>
+  <si>
+    <t>[-0.2787734568119049]</t>
+  </si>
+  <si>
+    <t>[-0.11984308063983917]</t>
+  </si>
+  <si>
+    <t>[0.11165793985128403]</t>
+  </si>
+  <si>
+    <t>[0.010463956743478775]</t>
+  </si>
+  <si>
+    <t>[0.0912359207868576]</t>
+  </si>
+  <si>
+    <t>[0.3166722357273102]</t>
+  </si>
+  <si>
+    <t>[0.056363560259342194]</t>
+  </si>
+  <si>
+    <t>[-0.06184747815132141]</t>
+  </si>
+  <si>
+    <t>[-0.14360827207565308]</t>
+  </si>
+  <si>
+    <t>[0.17221026122570038]</t>
+  </si>
+  <si>
+    <t>[-0.03188379853963852]</t>
+  </si>
+  <si>
+    <t>[0.14960432052612305]</t>
+  </si>
+  <si>
+    <t>[-0.019171539694070816]</t>
+  </si>
+  <si>
+    <t>[-0.13480983674526215]</t>
+  </si>
+  <si>
+    <t>[-0.09778212010860443]</t>
+  </si>
+  <si>
+    <t>[-0.262679785490036]</t>
+  </si>
+  <si>
+    <t>[-0.358869343996048]</t>
+  </si>
+  <si>
+    <t>[0.30355027318000793]</t>
+  </si>
+  <si>
+    <t>[-0.3223856985569]</t>
+  </si>
+  <si>
+    <t>[0.2168060541152954]</t>
+  </si>
+  <si>
+    <t>[0.27358999848365784]</t>
+  </si>
+  <si>
+    <t>[0.10205370932817459]</t>
+  </si>
+  <si>
+    <t>[0.010840767994523048]</t>
+  </si>
+  <si>
+    <t>[-0.26672419905662537]</t>
+  </si>
+  <si>
+    <t>[-0.3172677755355835]</t>
+  </si>
+  <si>
+    <t>[-0.30910056829452515]</t>
+  </si>
+  <si>
+    <t>[-0.07244477421045303]</t>
+  </si>
+  <si>
+    <t>[0.3573499321937561]</t>
+  </si>
+  <si>
+    <t>[-0.14290876686573029]</t>
+  </si>
+  <si>
+    <t>[-0.08673002570867538]</t>
+  </si>
+  <si>
+    <t>[0.03803578019142151]</t>
+  </si>
+  <si>
+    <t>[0.154683455824852]</t>
+  </si>
+  <si>
+    <t>[0.30019742250442505]</t>
+  </si>
+  <si>
+    <t>[0.11543762683868408]</t>
+  </si>
+  <si>
+    <t>[-0.0242961086332798]</t>
+  </si>
+  <si>
+    <t>[0.2597176730632782]</t>
+  </si>
+  <si>
+    <t>[0.04617384821176529]</t>
+  </si>
+  <si>
+    <t>[-0.4095585346221924]</t>
+  </si>
+  <si>
+    <t>[0.05242917686700821]</t>
+  </si>
+  <si>
+    <t>[-0.2898619771003723]</t>
+  </si>
+  <si>
+    <t>[-0.011030596680939198]</t>
+  </si>
+  <si>
+    <t>[0.21048471331596375]</t>
+  </si>
+  <si>
+    <t>[-0.3423311114311218]</t>
+  </si>
+  <si>
+    <t>[-0.31493619084358215]</t>
+  </si>
+  <si>
+    <t>[-0.10270348191261292]</t>
+  </si>
+  <si>
+    <t>[0.15774209797382355]</t>
+  </si>
+  <si>
+    <t>[-0.20336182415485382]</t>
+  </si>
+  <si>
+    <t>[0.269398033618927]</t>
+  </si>
+  <si>
+    <t>[-0.09446058422327042]</t>
+  </si>
+  <si>
+    <t>[-0.08416356891393661]</t>
+  </si>
+  <si>
+    <t>[0.08710426837205887]</t>
+  </si>
+  <si>
+    <t>[0.16961149871349335]</t>
+  </si>
+  <si>
+    <t>[0.015113207511603832]</t>
+  </si>
+  <si>
+    <t>[0.2378583699464798]</t>
+  </si>
+  <si>
+    <t>[-0.28122591972351074]</t>
+  </si>
+  <si>
+    <t>[0.10164907574653625]</t>
+  </si>
+  <si>
+    <t>[-0.2640092968940735]</t>
+  </si>
+  <si>
+    <t>[0.19969521462917328]</t>
+  </si>
+  <si>
+    <t>[-0.29752784967422485]</t>
+  </si>
+  <si>
+    <t>[0.41015106439590454]</t>
+  </si>
+  <si>
+    <t>[-0.1511857956647873]</t>
+  </si>
+  <si>
+    <t>[-0.29983678460121155]</t>
+  </si>
+  <si>
+    <t>[-0.10129155963659286]</t>
+  </si>
+  <si>
+    <t>[-0.1062643900513649]</t>
+  </si>
+  <si>
+    <t>[-0.0850420743227005]</t>
+  </si>
+  <si>
+    <t>[0.006956177297979593]</t>
+  </si>
+  <si>
+    <t>[0.0191987045109272]</t>
+  </si>
+  <si>
+    <t>[0.45158860087394714]</t>
+  </si>
+  <si>
+    <t>[0.16072522103786469]</t>
+  </si>
+  <si>
+    <t>[0.4291192591190338]</t>
+  </si>
+  <si>
+    <t>[-0.13982607424259186]</t>
+  </si>
+  <si>
+    <t>[-0.07103881239891052]</t>
+  </si>
+  <si>
+    <t>[-0.4913105070590973]</t>
+  </si>
+  <si>
+    <t>[-0.14961445331573486]</t>
+  </si>
+  <si>
+    <t>[-0.145019993185997]</t>
+  </si>
+  <si>
+    <t>[-0.0033240457996726036]</t>
+  </si>
+  <si>
+    <t>[-0.06699001044034958]</t>
+  </si>
+  <si>
+    <t>[0.06291843205690384]</t>
+  </si>
+  <si>
+    <t>[0.14186608791351318]</t>
+  </si>
+  <si>
+    <t>[0.235956609249115]</t>
+  </si>
+  <si>
+    <t>[0.07873430848121643]</t>
+  </si>
+  <si>
+    <t>[0.028738809749484062]</t>
+  </si>
+  <si>
+    <t>[-0.12777680158615112]</t>
+  </si>
+  <si>
+    <t>[0.3756392300128937]</t>
+  </si>
+  <si>
+    <t>[0.27306780219078064]</t>
+  </si>
+  <si>
+    <t>[-0.3665643632411957]</t>
+  </si>
+  <si>
+    <t>[0.0682820975780487]</t>
+  </si>
+  <si>
+    <t>[-0.1641843318939209]</t>
+  </si>
+  <si>
+    <t>[-0.060886286199092865]</t>
+  </si>
+  <si>
+    <t>[0.12263223528862]</t>
+  </si>
+  <si>
+    <t>[-0.03492262214422226]</t>
+  </si>
+  <si>
+    <t>[-0.24993467330932617]</t>
+  </si>
+  <si>
+    <t>[-0.026965413242578506]</t>
+  </si>
+  <si>
+    <t>[0.4028381407260895]</t>
+  </si>
+  <si>
+    <t>[-0.23109972476959229]</t>
+  </si>
+  <si>
+    <t>[0.16342973709106445]</t>
+  </si>
+  <si>
+    <t>[-0.11218361556529999]</t>
+  </si>
+  <si>
+    <t>[-0.09666620939970016]</t>
+  </si>
+  <si>
+    <t>[-0.052795831114053726]</t>
+  </si>
+  <si>
+    <t>[0.2413610965013504]</t>
+  </si>
+  <si>
+    <t>[0.0817355141043663]</t>
+  </si>
+  <si>
+    <t>[0.1584676206111908]</t>
+  </si>
+  <si>
+    <t>[0.12329676002264023]</t>
+  </si>
+  <si>
+    <t>[0.3851372003555298]</t>
+  </si>
+  <si>
+    <t>[0.17991410195827484]</t>
+  </si>
+  <si>
+    <t>[-0.09133828431367874]</t>
+  </si>
+  <si>
+    <t>[-0.08265508711338043]</t>
+  </si>
+  <si>
+    <t>[0.04982158541679382]</t>
+  </si>
+  <si>
+    <t>[-0.34179842472076416]</t>
+  </si>
+  <si>
+    <t>[-0.1516670286655426]</t>
+  </si>
+  <si>
+    <t>[-0.1482808142900467]</t>
+  </si>
+  <si>
+    <t>[-0.050969380885362625]</t>
+  </si>
+  <si>
+    <t>[-0.017504315823316574]</t>
+  </si>
+  <si>
+    <t>[0.2933511734008789]</t>
+  </si>
+  <si>
+    <t>[-0.2036474198102951]</t>
+  </si>
+  <si>
+    <t>[-0.08051791787147522]</t>
+  </si>
+  <si>
+    <t>[-0.11181942373514175]</t>
+  </si>
+  <si>
+    <t>[0.15594981610774994]</t>
+  </si>
+  <si>
+    <t>[0.019772814586758614]</t>
+  </si>
+  <si>
+    <t>[-0.550934910774231]</t>
+  </si>
+  <si>
+    <t>[-0.4807088077068329]</t>
+  </si>
+  <si>
+    <t>[-0.23028601706027985]</t>
+  </si>
+  <si>
+    <t>[-0.1427810788154602]</t>
+  </si>
+  <si>
+    <t>[0.15842603147029877]</t>
+  </si>
+  <si>
+    <t>[-0.03624741733074188]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -559,76 +1927,148 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[0.1794131100177765]</t>
-  </si>
-  <si>
-    <t>[1.0836071968078613]</t>
-  </si>
-  <si>
-    <t>[-0.12621864676475525]</t>
-  </si>
-  <si>
-    <t>[-0.14279203116893768]</t>
-  </si>
-  <si>
-    <t>[0.1275988668203354]</t>
-  </si>
-  <si>
-    <t>[1.0504018068313599]</t>
-  </si>
-  <si>
-    <t>[-0.1442737728357315]</t>
-  </si>
-  <si>
-    <t>[0.12231521308422089]</t>
-  </si>
-  <si>
-    <t>[0.21987736225128174]</t>
-  </si>
-  <si>
-    <t>[1.148772954940796]</t>
-  </si>
-  <si>
-    <t>[0.224511981010437]</t>
-  </si>
-  <si>
-    <t>[-0.12507611513137817]</t>
-  </si>
-  <si>
-    <t>[0.16558997333049774]</t>
-  </si>
-  <si>
-    <t>[1.0162913799285889]</t>
-  </si>
-  <si>
-    <t>[0.07244212925434113]</t>
-  </si>
-  <si>
-    <t>[-0.07639437168836594]</t>
-  </si>
-  <si>
-    <t>[-0.190079003572464]</t>
-  </si>
-  <si>
-    <t>[1.1433168649673462]</t>
-  </si>
-  <si>
-    <t>[0.2342337667942047]</t>
-  </si>
-  <si>
-    <t>[0.1216089278459549]</t>
-  </si>
-  <si>
-    <t>[0.23870600759983063]</t>
-  </si>
-  <si>
-    <t>[1.1329594850540161]</t>
-  </si>
-  <si>
-    <t>[-0.2779958248138428]</t>
-  </si>
-  <si>
-    <t>[0.09752833098173141]</t>
+    <t>[0.21560251712799072]</t>
+  </si>
+  <si>
+    <t>[1.1601773500442505]</t>
+  </si>
+  <si>
+    <t>[-0.21344506740570068]</t>
+  </si>
+  <si>
+    <t>[-0.10717464983463287]</t>
+  </si>
+  <si>
+    <t>[-0.21153143048286438]</t>
+  </si>
+  <si>
+    <t>[1.1774333715438843]</t>
+  </si>
+  <si>
+    <t>[-0.21667605638504028]</t>
+  </si>
+  <si>
+    <t>[-0.07485827058553696]</t>
+  </si>
+  <si>
+    <t>[0.18003007769584656]</t>
+  </si>
+  <si>
+    <t>[1.0910930633544922]</t>
+  </si>
+  <si>
+    <t>[0.18669937551021576]</t>
+  </si>
+  <si>
+    <t>[-0.09468121081590652]</t>
+  </si>
+  <si>
+    <t>[-0.19173504412174225]</t>
+  </si>
+  <si>
+    <t>[1.1665170192718506]</t>
+  </si>
+  <si>
+    <t>[0.19791032373905182]</t>
+  </si>
+  <si>
+    <t>[-0.09408923983573914]</t>
+  </si>
+  <si>
+    <t>[-0.21124403178691864]</t>
+  </si>
+  <si>
+    <t>[1.193347692489624]</t>
+  </si>
+  <si>
+    <t>[-0.23292769491672516]</t>
+  </si>
+  <si>
+    <t>[0.1315823644399643]</t>
+  </si>
+  <si>
+    <t>[0.17428551614284515]</t>
+  </si>
+  <si>
+    <t>[1.1446099281311035]</t>
+  </si>
+  <si>
+    <t>[-0.20719653367996216]</t>
+  </si>
+  <si>
+    <t>[-0.10301598161458969]</t>
+  </si>
+  <si>
+    <t>[-0.20533132553100586]</t>
+  </si>
+  <si>
+    <t>[1.1611287593841553]</t>
+  </si>
+  <si>
+    <t>[-0.2208225280046463]</t>
+  </si>
+  <si>
+    <t>[-0.08758728951215744]</t>
+  </si>
+  <si>
+    <t>[0.13248707354068756]</t>
+  </si>
+  <si>
+    <t>[1.1541396379470825]</t>
+  </si>
+  <si>
+    <t>[-0.23869818449020386]</t>
+  </si>
+  <si>
+    <t>[0.1439063549041748]</t>
+  </si>
+  <si>
+    <t>[0.16774046421051025]</t>
+  </si>
+  <si>
+    <t>[1.1573556661605835]</t>
+  </si>
+  <si>
+    <t>[0.1771882325410843]</t>
+  </si>
+  <si>
+    <t>[0.14448195695877075]</t>
+  </si>
+  <si>
+    <t>[-0.21613755822181702]</t>
+  </si>
+  <si>
+    <t>[1.1893773078918457]</t>
+  </si>
+  <si>
+    <t>[-0.21456924080848694]</t>
+  </si>
+  <si>
+    <t>[-0.15903392434120178]</t>
+  </si>
+  <si>
+    <t>[-0.2242131531238556]</t>
+  </si>
+  <si>
+    <t>[1.1903375387191772]</t>
+  </si>
+  <si>
+    <t>[0.22165310382843018]</t>
+  </si>
+  <si>
+    <t>[0.2091638296842575]</t>
+  </si>
+  <si>
+    <t>[0.22525745630264282]</t>
+  </si>
+  <si>
+    <t>[1.1874210834503174]</t>
+  </si>
+  <si>
+    <t>[-0.22514082491397858]</t>
+  </si>
+  <si>
+    <t>[0.0947035551071167]</t>
   </si>
 </sst>
 </file>
@@ -977,7 +2417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +2539,108 @@
       </c>
       <c r="E7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +2654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,16 +2664,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1139,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1156,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1173,16 +2715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1190,16 +2732,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1207,16 +2749,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1224,16 +2766,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1241,16 +2783,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1258,16 +2800,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1275,16 +2817,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1292,16 +2834,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1309,16 +2851,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1326,16 +2868,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1343,16 +2885,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1360,16 +2902,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1377,16 +2919,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1394,16 +2936,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1411,16 +2953,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1428,16 +2970,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1445,16 +2987,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1462,16 +3004,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1479,16 +3021,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1496,16 +3038,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1513,16 +3055,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1530,16 +3072,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1547,16 +3089,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1564,16 +3106,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1581,16 +3123,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1598,16 +3140,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1615,16 +3157,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1632,16 +3174,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1649,16 +3191,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1666,16 +3208,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1683,16 +3225,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1700,16 +3242,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1717,16 +3259,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1734,16 +3276,1852 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" t="s">
+        <v>366</v>
+      </c>
+      <c r="E79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" t="s">
+        <v>369</v>
+      </c>
+      <c r="D80" t="s">
+        <v>370</v>
+      </c>
+      <c r="E80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" t="s">
+        <v>382</v>
+      </c>
+      <c r="E83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+      <c r="D85" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D87" t="s">
+        <v>398</v>
+      </c>
+      <c r="E87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" t="s">
+        <v>413</v>
+      </c>
+      <c r="D91" t="s">
+        <v>414</v>
+      </c>
+      <c r="E91" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92" t="s">
+        <v>418</v>
+      </c>
+      <c r="E92" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>421</v>
+      </c>
+      <c r="D93" t="s">
+        <v>422</v>
+      </c>
+      <c r="E93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" t="s">
+        <v>426</v>
+      </c>
+      <c r="E94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" t="s">
+        <v>433</v>
+      </c>
+      <c r="D96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" t="s">
+        <v>438</v>
+      </c>
+      <c r="E97" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100" t="s">
+        <v>450</v>
+      </c>
+      <c r="E100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" t="s">
+        <v>458</v>
+      </c>
+      <c r="E102" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C103" t="s">
+        <v>461</v>
+      </c>
+      <c r="D103" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>464</v>
+      </c>
+      <c r="C104" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" t="s">
+        <v>466</v>
+      </c>
+      <c r="E104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" t="s">
+        <v>470</v>
+      </c>
+      <c r="E105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>472</v>
+      </c>
+      <c r="C106" t="s">
+        <v>473</v>
+      </c>
+      <c r="D106" t="s">
+        <v>474</v>
+      </c>
+      <c r="E106" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" t="s">
+        <v>477</v>
+      </c>
+      <c r="D107" t="s">
+        <v>478</v>
+      </c>
+      <c r="E107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>480</v>
+      </c>
+      <c r="C108" t="s">
+        <v>481</v>
+      </c>
+      <c r="D108" t="s">
+        <v>482</v>
+      </c>
+      <c r="E108" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>484</v>
+      </c>
+      <c r="C109" t="s">
+        <v>485</v>
+      </c>
+      <c r="D109" t="s">
+        <v>486</v>
+      </c>
+      <c r="E109" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110" t="s">
+        <v>489</v>
+      </c>
+      <c r="D110" t="s">
+        <v>490</v>
+      </c>
+      <c r="E110" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" t="s">
+        <v>494</v>
+      </c>
+      <c r="E111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>496</v>
+      </c>
+      <c r="C112" t="s">
+        <v>497</v>
+      </c>
+      <c r="D112" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D113" t="s">
+        <v>502</v>
+      </c>
+      <c r="E113" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" t="s">
+        <v>506</v>
+      </c>
+      <c r="E114" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>508</v>
+      </c>
+      <c r="C115" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" t="s">
+        <v>510</v>
+      </c>
+      <c r="E115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" t="s">
+        <v>514</v>
+      </c>
+      <c r="E116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" t="s">
+        <v>518</v>
+      </c>
+      <c r="E117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>520</v>
+      </c>
+      <c r="C118" t="s">
+        <v>521</v>
+      </c>
+      <c r="D118" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
+        <v>525</v>
+      </c>
+      <c r="D119" t="s">
+        <v>526</v>
+      </c>
+      <c r="E119" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>528</v>
+      </c>
+      <c r="C120" t="s">
+        <v>529</v>
+      </c>
+      <c r="D120" t="s">
+        <v>530</v>
+      </c>
+      <c r="E120" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>532</v>
+      </c>
+      <c r="C121" t="s">
+        <v>533</v>
+      </c>
+      <c r="D121" t="s">
+        <v>534</v>
+      </c>
+      <c r="E121" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>536</v>
+      </c>
+      <c r="C122" t="s">
+        <v>537</v>
+      </c>
+      <c r="D122" t="s">
+        <v>538</v>
+      </c>
+      <c r="E122" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>540</v>
+      </c>
+      <c r="C123" t="s">
+        <v>541</v>
+      </c>
+      <c r="D123" t="s">
+        <v>542</v>
+      </c>
+      <c r="E123" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" t="s">
+        <v>546</v>
+      </c>
+      <c r="E124" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>548</v>
+      </c>
+      <c r="C125" t="s">
+        <v>549</v>
+      </c>
+      <c r="D125" t="s">
+        <v>550</v>
+      </c>
+      <c r="E125" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>552</v>
+      </c>
+      <c r="C126" t="s">
+        <v>553</v>
+      </c>
+      <c r="D126" t="s">
+        <v>554</v>
+      </c>
+      <c r="E126" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>556</v>
+      </c>
+      <c r="C127" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" t="s">
+        <v>561</v>
+      </c>
+      <c r="D128" t="s">
+        <v>562</v>
+      </c>
+      <c r="E128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>564</v>
+      </c>
+      <c r="C129" t="s">
+        <v>565</v>
+      </c>
+      <c r="D129" t="s">
+        <v>566</v>
+      </c>
+      <c r="E129" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>568</v>
+      </c>
+      <c r="C130" t="s">
+        <v>569</v>
+      </c>
+      <c r="D130" t="s">
+        <v>570</v>
+      </c>
+      <c r="E130" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>572</v>
+      </c>
+      <c r="C131" t="s">
+        <v>573</v>
+      </c>
+      <c r="D131" t="s">
+        <v>574</v>
+      </c>
+      <c r="E131" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>576</v>
+      </c>
+      <c r="C132" t="s">
+        <v>577</v>
+      </c>
+      <c r="D132" t="s">
+        <v>578</v>
+      </c>
+      <c r="E132" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>580</v>
+      </c>
+      <c r="C133" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>582</v>
+      </c>
+      <c r="E133" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>584</v>
+      </c>
+      <c r="C134" t="s">
+        <v>585</v>
+      </c>
+      <c r="D134" t="s">
+        <v>586</v>
+      </c>
+      <c r="E134" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>588</v>
+      </c>
+      <c r="C135" t="s">
+        <v>589</v>
+      </c>
+      <c r="D135" t="s">
+        <v>590</v>
+      </c>
+      <c r="E135" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>592</v>
+      </c>
+      <c r="C136" t="s">
+        <v>593</v>
+      </c>
+      <c r="D136" t="s">
+        <v>594</v>
+      </c>
+      <c r="E136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>596</v>
+      </c>
+      <c r="C137" t="s">
+        <v>597</v>
+      </c>
+      <c r="D137" t="s">
+        <v>598</v>
+      </c>
+      <c r="E137" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>600</v>
+      </c>
+      <c r="C138" t="s">
+        <v>601</v>
+      </c>
+      <c r="D138" t="s">
+        <v>602</v>
+      </c>
+      <c r="E138" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>604</v>
+      </c>
+      <c r="C139" t="s">
+        <v>605</v>
+      </c>
+      <c r="D139" t="s">
+        <v>606</v>
+      </c>
+      <c r="E139" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>608</v>
+      </c>
+      <c r="C140" t="s">
+        <v>609</v>
+      </c>
+      <c r="D140" t="s">
+        <v>610</v>
+      </c>
+      <c r="E140" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>612</v>
+      </c>
+      <c r="C141" t="s">
+        <v>613</v>
+      </c>
+      <c r="D141" t="s">
+        <v>614</v>
+      </c>
+      <c r="E141" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>616</v>
+      </c>
+      <c r="C142" t="s">
+        <v>617</v>
+      </c>
+      <c r="D142" t="s">
+        <v>618</v>
+      </c>
+      <c r="E142" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>620</v>
+      </c>
+      <c r="C143" t="s">
+        <v>621</v>
+      </c>
+      <c r="D143" t="s">
+        <v>622</v>
+      </c>
+      <c r="E143" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>624</v>
+      </c>
+      <c r="C144" t="s">
+        <v>625</v>
+      </c>
+      <c r="D144" t="s">
+        <v>626</v>
+      </c>
+      <c r="E144" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>628</v>
+      </c>
+      <c r="C145" t="s">
+        <v>629</v>
+      </c>
+      <c r="D145" t="s">
+        <v>630</v>
+      </c>
+      <c r="E145" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +5135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,16 +5145,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>633</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>634</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1784,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>636</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>637</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>638</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1801,16 +5179,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>641</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>642</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1818,16 +5196,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>644</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>646</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1835,16 +5213,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>649</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>650</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1852,16 +5230,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>654</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1869,16 +5247,118 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>656</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>657</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>658</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E13" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
